--- a/upload/taxa-readmissao-2025.xlsx
+++ b/upload/taxa-readmissao-2025.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\OneDrive - FHEMIG\Coordenação de Informação - Geral\Portal de Dados Abertos MG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
   <si>
     <t>unidade</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>mes</t>
+  </si>
+  <si>
+    <t>tx_readmissao</t>
   </si>
   <si>
     <t>HAC</t>
@@ -42,12 +45,6 @@
     <t>HJK</t>
   </si>
   <si>
-    <t>HJXXIII</t>
-  </si>
-  <si>
-    <t>HRAD</t>
-  </si>
-  <si>
     <t>HRBJA</t>
   </si>
   <si>
@@ -57,7 +54,10 @@
     <t>MOV</t>
   </si>
   <si>
-    <t>tx_readmissao</t>
+    <t>HJXXIII</t>
+  </si>
+  <si>
+    <t>HRAD</t>
   </si>
 </sst>
 </file>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -406,130 +406,130 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>2025</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>9.4339622641509441E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>2025</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0.10256410256410256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>2025</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>0.10248447204968944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>2025</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>0.12538226299694188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>2025</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
-        <v>9.1743119266055051E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>2025</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>2025</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>4.2813455657492352E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>2025</v>
       </c>
       <c r="C9" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
-        <v>2.9508196721311476E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>2025</v>
       </c>
       <c r="C10" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -537,91 +537,91 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>2025</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>3.5211267605633804E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>2025</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4.5454545454545456E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>2025</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>3.1645569620253167E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>2025</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2.9239766081871343E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>2025</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3">
-        <v>1.1235955056179775E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2">
         <v>2025</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3">
-        <v>3.870967741935484E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
         <v>2025</v>
@@ -630,124 +630,124 @@
         <v>7</v>
       </c>
       <c r="D17" s="3">
-        <v>3.8043478260869568E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2">
         <v>2025</v>
       </c>
       <c r="C18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
-        <v>1.8181818181818181E-2</v>
+        <v>9.3370681605975728E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>1.4084507042253522E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
-        <v>5.7971014492753624E-2</v>
+        <v>1.4104372355430183E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2">
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>4.6242774566473986E-2</v>
+        <v>1.8050541516245488E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
-        <v>3.6036036036036036E-2</v>
+        <v>1.8552875695732839E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>4.195804195804196E-2</v>
+        <v>2.4154589371980675E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2">
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D24" s="3">
-        <v>3.8817005545286505E-2</v>
+        <v>3.0534351145038168E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>3.0701754385964911E-2</v>
+        <v>3.3222591362126247E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
         <v>2025</v>
@@ -756,82 +756,82 @@
         <v>7</v>
       </c>
       <c r="D26" s="3">
-        <v>5.5555555555555552E-2</v>
+        <v>3.4246575342465752E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2">
         <v>2025</v>
       </c>
       <c r="C27" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>2.2151898734177215E-2</v>
+        <v>3.5026269702276708E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <v>2025</v>
       </c>
       <c r="C28" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>3.5211267605633804E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
         <v>2025</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>3.5650623885918001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2">
         <v>2025</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3">
-        <v>3.3898305084745763E-2</v>
+        <v>3.5671819262782403E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31" s="3">
-        <v>2.4328859060402684E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2">
         <v>2025</v>
@@ -840,124 +840,124 @@
         <v>4</v>
       </c>
       <c r="D32" s="3">
-        <v>2.36013986013986E-2</v>
+        <v>3.7453183520599251E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2">
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>3.9577836411609502E-3</v>
+        <v>3.8167938931297708E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2">
         <v>2025</v>
       </c>
       <c r="C34" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3">
-        <v>7.6923076923076927E-2</v>
+        <v>3.9577836411609502E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
         <v>2025</v>
       </c>
       <c r="C35" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" s="3">
-        <v>1.5177065767284991E-2</v>
+        <v>5.597014925373134E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2">
         <v>2025</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3">
-        <v>9.0634441087613302E-3</v>
+        <v>5.7142857142857143E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2">
         <v>2025</v>
       </c>
       <c r="C37" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2">
         <v>2025</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" s="3">
-        <v>1.9913419913419914E-2</v>
+        <v>6.6137566137566134E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2">
         <v>2025</v>
       </c>
       <c r="C39" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3">
-        <v>2.0202020202020204E-2</v>
+        <v>7.0113935144609993E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2">
         <v>2025</v>
       </c>
       <c r="C40" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>3.0109489051094892E-2</v>
+        <v>7.2046109510086453E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2">
         <v>2025</v>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="3">
-        <v>2.2658610271903322E-2</v>
+        <v>7.7120822622107968E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -977,197 +977,197 @@
         <v>2025</v>
       </c>
       <c r="C42" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D42" s="3">
-        <v>1.3181019332161687E-2</v>
+        <v>9.0634441087613302E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2">
         <v>2025</v>
       </c>
       <c r="C43" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" s="3">
-        <v>2.5385312783318223E-2</v>
+        <v>1.0296010296010296E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2">
         <v>2025</v>
       </c>
       <c r="C44" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
-        <v>1.3837638376383764E-2</v>
+        <v>1.0309278350515464E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2">
         <v>2025</v>
       </c>
       <c r="C45" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3">
-        <v>7.0052539404553416E-3</v>
+        <v>1.0703363914373088E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2">
         <v>2025</v>
       </c>
       <c r="C46" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1.0840108401084011E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2">
         <v>2025</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47" s="3">
-        <v>2.2911051212938006E-2</v>
+        <v>1.1235955056179775E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2">
         <v>2025</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" s="3">
-        <v>1.5965166908563134E-2</v>
+        <v>1.3192612137203167E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B49" s="2">
         <v>2025</v>
       </c>
       <c r="C49" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D49" s="3">
-        <v>2.8985507246376812E-2</v>
+        <v>1.3837638376383764E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2">
         <v>2025</v>
       </c>
       <c r="C50" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D50" s="3">
-        <v>4.6357615894039736E-2</v>
+        <v>1.5177065767284991E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2">
         <v>2025</v>
       </c>
       <c r="C51" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" s="3">
-        <v>2.9661016949152543E-2</v>
+        <v>1.5965166908563134E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52" s="2">
         <v>2025</v>
       </c>
       <c r="C52" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D52" s="3">
-        <v>1.8893387314439947E-2</v>
+        <v>1.7977528089887642E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B53" s="2">
         <v>2025</v>
       </c>
       <c r="C53" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="3">
-        <v>1.0296010296010296E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54" s="2">
         <v>2025</v>
       </c>
       <c r="C54" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3">
-        <v>1.0840108401084011E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B55" s="2">
         <v>2025</v>
       </c>
       <c r="C55" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55" s="3">
-        <v>3.5671819262782403E-3</v>
+        <v>1.8893387314439947E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B56" s="2">
         <v>2025</v>
@@ -1176,12 +1176,12 @@
         <v>1</v>
       </c>
       <c r="D56" s="3">
-        <v>1.0309278350515464E-2</v>
+        <v>1.9913419913419914E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B57" s="2">
         <v>2025</v>
@@ -1190,26 +1190,26 @@
         <v>2</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>2.0202020202020204E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B58" s="2">
         <v>2025</v>
       </c>
       <c r="C58" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>2.2151898734177215E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2">
         <v>2025</v>
@@ -1218,597 +1218,458 @@
         <v>4</v>
       </c>
       <c r="D59" s="3">
-        <v>3.7453183520599251E-3</v>
+        <v>2.2658610271903322E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B60" s="2">
         <v>2025</v>
       </c>
       <c r="C60" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3">
-        <v>3.5211267605633804E-3</v>
+        <v>2.2911051212938006E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B61" s="2">
         <v>2025</v>
       </c>
       <c r="C61" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61" s="3">
-        <v>3.6764705882352941E-3</v>
+        <v>2.36013986013986E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62" s="2">
         <v>2025</v>
       </c>
       <c r="C62" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D62" s="3">
-        <v>3.4246575342465752E-3</v>
+        <v>2.4328859060402684E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B63" s="2">
         <v>2025</v>
       </c>
       <c r="C63" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D63" s="3">
-        <v>0</v>
+        <v>2.5385312783318223E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B64" s="2">
         <v>2025</v>
       </c>
       <c r="C64" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>2.8985507246376812E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B65" s="2">
         <v>2025</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" s="3">
-        <v>1.8518518518518517E-2</v>
+        <v>2.9239766081871343E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B66" s="2">
         <v>2025</v>
       </c>
       <c r="C66" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D66" s="3">
-        <v>1.7977528089887642E-2</v>
+        <v>2.9508196721311476E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B67" s="2">
         <v>2025</v>
       </c>
       <c r="C67" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" s="3">
-        <v>3.5026269702276708E-3</v>
+        <v>2.9661016949152543E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68" s="2">
         <v>2025</v>
       </c>
       <c r="C68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" s="3">
-        <v>3.5650623885918001E-3</v>
+        <v>3.0109489051094892E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B69" s="2">
         <v>2025</v>
       </c>
       <c r="C69" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" s="3">
-        <v>3.3222591362126247E-3</v>
+        <v>3.0701754385964911E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B70" s="2">
         <v>2025</v>
       </c>
       <c r="C70" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D70" s="3">
-        <v>1.8552875695732839E-3</v>
+        <v>3.1645569620253167E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B71" s="2">
         <v>2025</v>
       </c>
       <c r="C71" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D71" s="3">
-        <v>0</v>
+        <v>3.3898305084745763E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B72" s="2">
         <v>2025</v>
       </c>
       <c r="C72" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D72" s="3">
-        <v>5.597014925373134E-3</v>
+        <v>3.5211267605633804E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B73" s="2">
         <v>2025</v>
       </c>
       <c r="C73" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3">
-        <v>5.7142857142857143E-3</v>
+        <v>3.6036036036036036E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B74" s="2">
         <v>2025</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D74" s="3">
-        <v>7.2046109510086453E-3</v>
+        <v>3.8043478260869568E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B75" s="2">
         <v>2025</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D75" s="3">
-        <v>1.0703363914373088E-2</v>
+        <v>3.870967741935484E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B76" s="2">
         <v>2025</v>
       </c>
       <c r="C76" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="3">
-        <v>6.2500000000000003E-3</v>
+        <v>3.8817005545286505E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B77" s="2">
         <v>2025</v>
       </c>
       <c r="C77" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D77" s="3">
-        <v>7.7120822622107968E-3</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B78" s="2">
         <v>2025</v>
       </c>
       <c r="C78" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="3">
-        <v>2.4154589371980675E-3</v>
+        <v>4.195804195804196E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B79" s="2">
         <v>2025</v>
       </c>
       <c r="C79" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="3">
-        <v>6.6225165562913907E-3</v>
+        <v>4.2813455657492352E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B80" s="2">
         <v>2025</v>
       </c>
       <c r="C80" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D80" s="3">
-        <v>0</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B81" s="2">
         <v>2025</v>
       </c>
       <c r="C81" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D81" s="3">
-        <v>3.0534351145038168E-3</v>
+        <v>4.6242774566473986E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" s="2">
         <v>2025</v>
       </c>
       <c r="C82" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D82" s="3">
-        <v>1.4144271570014145E-3</v>
+        <v>4.6357615894039736E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C83" s="2">
+        <v>7</v>
+      </c>
+      <c r="D83" s="3">
+        <v>5.5408970976253295E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3">
+        <v>5.7971014492753624E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C85" s="2">
+        <v>6</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6</v>
+      </c>
+      <c r="D86" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C87" s="2">
+        <v>5</v>
+      </c>
+      <c r="D87" s="3">
+        <v>9.1743119266055051E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3">
+        <v>9.4339622641509441E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C89" s="2">
+        <v>3</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.10248447204968944</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.10256410256410256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C91" s="2">
+        <v>4</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.12538226299694188</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001F758B6196B0F49AC2B800DFBC943B3" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="d594503fc2142a00f6f31ee1b949d524">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee1baa49-d775-490f-95a0-0be6b1b30548" xmlns:ns3="0b0293c2-191e-4088-96c9-a881010ce1ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38f63ce2bf38fd83141937b3be60016e" ns2:_="" ns3:_="">
-    <xsd:import namespace="ee1baa49-d775-490f-95a0-0be6b1b30548"/>
-    <xsd:import namespace="0b0293c2-191e-4088-96c9-a881010ce1ad"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee1baa49-d775-490f-95a0-0be6b1b30548" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7af98bd1-2354-4ddb-b15f-75f5f3c88b53" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0b0293c2-191e-4088-96c9-a881010ce1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{31baf46e-eed5-4ebd-ba89-72a3afe19d19}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0b0293c2-191e-4088-96c9-a881010ce1ad">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0b0293c2-191e-4088-96c9-a881010ce1ad" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee1baa49-d775-490f-95a0-0be6b1b30548">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01413D64-0702-4247-B8A3-11111FA04F7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee1baa49-d775-490f-95a0-0be6b1b30548"/>
-    <ds:schemaRef ds:uri="0b0293c2-191e-4088-96c9-a881010ce1ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F46A1F-5F8C-48CC-9420-86A6C14918BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0b0293c2-191e-4088-96c9-a881010ce1ad"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ee1baa49-d775-490f-95a0-0be6b1b30548"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04EC9124-2945-4AB4-BDFA-3E3E1C42C72C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/upload/taxa-readmissao-2025.xlsx
+++ b/upload/taxa-readmissao-2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="14">
   <si>
     <t>unidade</t>
   </si>
@@ -33,7 +33,13 @@
     <t>tx_readmissao</t>
   </si>
   <si>
-    <t>HJK</t>
+    <t>HIJPII</t>
+  </si>
+  <si>
+    <t>HJXXIII</t>
+  </si>
+  <si>
+    <t>HMAL</t>
   </si>
   <si>
     <t>HRBJA</t>
@@ -45,16 +51,13 @@
     <t>MOV</t>
   </si>
   <si>
-    <t>HJXXIII</t>
+    <t>HJK</t>
   </si>
   <si>
     <t>HRAD</t>
   </si>
   <si>
     <t>HEM</t>
-  </si>
-  <si>
-    <t>HIJPII</t>
   </si>
   <si>
     <t>HAC</t>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD93"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,7 +420,7 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -431,7 +434,7 @@
         <v>2025</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -439,13 +442,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>2025</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -459,7 +462,7 @@
         <v>2025</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -467,13 +470,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>2025</v>
       </c>
       <c r="C6" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -487,10 +490,10 @@
         <v>2025</v>
       </c>
       <c r="C7" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>1.7985611510791368E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -501,38 +504,38 @@
         <v>2025</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>1.8552875695732839E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>2025</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>2.4154589371980675E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>2025</v>
       </c>
       <c r="C10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>3.0534351145038168E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -543,24 +546,24 @@
         <v>2025</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>3.3222591362126247E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>2025</v>
       </c>
       <c r="C12" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>3.4246575342465752E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -571,150 +574,150 @@
         <v>2025</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>3.5026269702276708E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
         <v>2025</v>
       </c>
       <c r="C14" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>3.5211267605633804E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>2025</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>3.5650623885918001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
         <v>2025</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>3.6764705882352941E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
         <v>2025</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3.7453183520599251E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
         <v>2025</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3">
-        <v>3.9577836411609502E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2">
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3">
-        <v>4.0322580645161289E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>4.1322314049586778E-3</v>
+        <v>1.8552875695732839E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3">
-        <v>5.597014925373134E-3</v>
+        <v>1.9305019305019305E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
-        <v>5.6417489421720732E-3</v>
+        <v>2.4154589371980675E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3">
-        <v>6.2500000000000003E-3</v>
+        <v>3.0534351145038168E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -725,10 +728,10 @@
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
-        <v>6.2597809076682318E-3</v>
+        <v>3.3222591362126247E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -739,43 +742,43 @@
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="3">
-        <v>6.6137566137566134E-3</v>
+        <v>3.4246575342465752E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
         <v>2025</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>7.2046109510086453E-3</v>
+        <v>3.5026269702276708E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2">
         <v>2025</v>
       </c>
       <c r="C27" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>7.2992700729927005E-3</v>
+        <v>3.5211267605633804E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <v>2025</v>
@@ -784,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>7.7120822622107968E-3</v>
+        <v>3.5650623885918001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -795,38 +798,38 @@
         <v>2025</v>
       </c>
       <c r="C29" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D29" s="3">
-        <v>9.8591549295774655E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
         <v>2025</v>
       </c>
       <c r="C30" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3">
-        <v>1.0296010296010296E-2</v>
+        <v>3.7453183520599251E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2">
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>1.0309278350515464E-2</v>
+        <v>3.9577836411609502E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -837,43 +840,43 @@
         <v>2025</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3">
-        <v>1.0703363914373088E-2</v>
+        <v>4.0322580645161289E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2">
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>1.1235955056179775E-2</v>
+        <v>4.1322314049586778E-3</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2">
         <v>2025</v>
       </c>
       <c r="C34" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3">
-        <v>1.1890606420927468E-2</v>
+        <v>5.3191489361702126E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2">
         <v>2025</v>
@@ -882,166 +885,166 @@
         <v>8</v>
       </c>
       <c r="D35" s="3">
-        <v>1.2195121951219513E-2</v>
+        <v>5.597014925373134E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2">
         <v>2025</v>
       </c>
       <c r="C36" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3">
-        <v>1.2269938650306749E-2</v>
+        <v>5.6417489421720732E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2">
         <v>2025</v>
       </c>
       <c r="C37" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>1.3192612137203167E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2">
         <v>2025</v>
       </c>
       <c r="C38" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D38" s="3">
-        <v>1.3333333333333334E-2</v>
+        <v>6.6137566137566134E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2">
         <v>2025</v>
       </c>
       <c r="C39" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>1.3595166163141994E-2</v>
+        <v>7.2046109510086453E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2">
         <v>2025</v>
       </c>
       <c r="C40" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D40" s="3">
-        <v>1.3837638376383764E-2</v>
+        <v>7.2992700729927005E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2">
         <v>2025</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" s="3">
-        <v>1.5267175572519083E-2</v>
+        <v>7.4441687344913151E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2">
         <v>2025</v>
       </c>
       <c r="C42" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D42" s="3">
-        <v>1.5544041450777202E-2</v>
+        <v>7.7120822622107968E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2">
         <v>2025</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D43" s="3">
-        <v>1.5965166908563134E-2</v>
+        <v>7.7777777777777776E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2">
         <v>2025</v>
       </c>
       <c r="C44" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D44" s="3">
-        <v>1.6020236087689713E-2</v>
+        <v>8.6206896551724137E-3</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2">
         <v>2025</v>
       </c>
       <c r="C45" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" s="3">
-        <v>1.6652059596844872E-2</v>
+        <v>9.8314606741573031E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2">
         <v>2025</v>
       </c>
       <c r="C46" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D46" s="3">
-        <v>1.7977528089887642E-2</v>
+        <v>1.0296010296010296E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" s="2">
         <v>2025</v>
@@ -1050,217 +1053,217 @@
         <v>1</v>
       </c>
       <c r="D47" s="3">
-        <v>1.8518518518518517E-2</v>
+        <v>1.0309278350515464E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2">
         <v>2025</v>
       </c>
       <c r="C48" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D48" s="3">
-        <v>1.8656716417910446E-2</v>
+        <v>1.0703363914373088E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B49" s="2">
         <v>2025</v>
       </c>
       <c r="C49" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49" s="3">
-        <v>1.8893387314439947E-2</v>
+        <v>1.0851419031719533E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2">
         <v>2025</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50" s="3">
-        <v>1.9913419913419914E-2</v>
+        <v>1.1235955056179775E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B51" s="2">
         <v>2025</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D51" s="3">
-        <v>2.0202020202020204E-2</v>
+        <v>1.1876484560570071E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" s="2">
         <v>2025</v>
       </c>
       <c r="C52" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="3">
-        <v>2.1739130434782608E-2</v>
+        <v>1.2195121951219513E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B53" s="2">
         <v>2025</v>
       </c>
       <c r="C53" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D53" s="3">
-        <v>2.2658610271903322E-2</v>
+        <v>1.2320328542094456E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B54" s="2">
         <v>2025</v>
       </c>
       <c r="C54" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D54" s="3">
-        <v>2.2911051212938006E-2</v>
+        <v>1.2987012987012988E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B55" s="2">
         <v>2025</v>
       </c>
       <c r="C55" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D55" s="3">
-        <v>2.3333333333333334E-2</v>
+        <v>1.3192612137203167E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B56" s="2">
         <v>2025</v>
       </c>
       <c r="C56" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D56" s="3">
-        <v>2.36013986013986E-2</v>
+        <v>1.3333333333333334E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2">
         <v>2025</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D57" s="3">
-        <v>2.4328859060402684E-2</v>
+        <v>1.3595166163141994E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2">
         <v>2025</v>
       </c>
       <c r="C58" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="3">
-        <v>2.6291931097008159E-2</v>
+        <v>1.3837638376383764E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2">
         <v>2025</v>
       </c>
       <c r="C59" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D59" s="3">
-        <v>2.7877697841726619E-2</v>
+        <v>1.5965166908563134E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2">
         <v>2025</v>
       </c>
       <c r="C60" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D60" s="3">
-        <v>2.8985507246376812E-2</v>
+        <v>1.6020236087689713E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" s="2">
         <v>2025</v>
       </c>
       <c r="C61" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D61" s="3">
-        <v>2.9239766081871343E-2</v>
+        <v>1.6518424396442185E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B62" s="2">
         <v>2025</v>
       </c>
       <c r="C62" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D62" s="3">
-        <v>2.9661016949152543E-2</v>
+        <v>1.7528483786152498E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1271,206 +1274,206 @@
         <v>2025</v>
       </c>
       <c r="C63" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="3">
-        <v>3.0109489051094892E-2</v>
+        <v>1.7977528089887642E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B64" s="2">
         <v>2025</v>
       </c>
       <c r="C64" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3">
-        <v>3.0701754385964911E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2">
         <v>2025</v>
       </c>
       <c r="C65" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D65" s="3">
-        <v>3.1152647975077882E-2</v>
+        <v>1.8893387314439947E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B66" s="2">
         <v>2025</v>
       </c>
       <c r="C66" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D66" s="3">
-        <v>3.1645569620253167E-2</v>
+        <v>1.9534883720930232E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" s="2">
         <v>2025</v>
       </c>
       <c r="C67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="3">
-        <v>3.3898305084745763E-2</v>
+        <v>1.9913419913419914E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B68" s="2">
         <v>2025</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>3.5211267605633804E-2</v>
+        <v>2.0202020202020204E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" s="2">
         <v>2025</v>
       </c>
       <c r="C69" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D69" s="3">
-        <v>3.6036036036036036E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B70" s="2">
         <v>2025</v>
       </c>
       <c r="C70" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70" s="3">
-        <v>3.6363636363636362E-2</v>
+        <v>2.2508038585209004E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B71" s="2">
         <v>2025</v>
       </c>
       <c r="C71" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D71" s="3">
-        <v>3.8043478260869568E-2</v>
+        <v>2.2658610271903322E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" s="2">
         <v>2025</v>
       </c>
       <c r="C72" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D72" s="3">
-        <v>3.870967741935484E-2</v>
+        <v>2.2911051212938006E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" s="2">
         <v>2025</v>
       </c>
       <c r="C73" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="3">
-        <v>3.8817005545286505E-2</v>
+        <v>2.36013986013986E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2">
         <v>2025</v>
       </c>
       <c r="C74" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D74" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>2.4328859060402684E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75" s="2">
         <v>2025</v>
       </c>
       <c r="C75" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D75" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>2.6291931097008159E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="2">
         <v>2025</v>
       </c>
       <c r="C76" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D76" s="3">
-        <v>4.195804195804196E-2</v>
+        <v>2.8776978417266189E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="2">
         <v>2025</v>
       </c>
       <c r="C77" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D77" s="3">
-        <v>4.2622950819672129E-2</v>
+        <v>2.8985507246376812E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1481,10 +1484,10 @@
         <v>2025</v>
       </c>
       <c r="C78" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D78" s="3">
-        <v>4.2813455657492352E-2</v>
+        <v>2.9239766081871343E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1495,80 +1498,80 @@
         <v>2025</v>
       </c>
       <c r="C79" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D79" s="3">
-        <v>4.4303797468354431E-2</v>
+        <v>2.9661016949152543E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B80" s="2">
         <v>2025</v>
       </c>
       <c r="C80" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="3">
-        <v>4.5454545454545456E-2</v>
+        <v>3.0109489051094892E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B81" s="2">
         <v>2025</v>
       </c>
       <c r="C81" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D81" s="3">
-        <v>4.6242774566473986E-2</v>
+        <v>3.0701754385964911E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B82" s="2">
         <v>2025</v>
       </c>
       <c r="C82" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D82" s="3">
-        <v>4.6357615894039736E-2</v>
+        <v>3.1088082901554404E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83" s="2">
         <v>2025</v>
       </c>
       <c r="C83" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D83" s="3">
-        <v>5.5408970976253295E-2</v>
+        <v>3.1645569620253167E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="2">
         <v>2025</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="3">
-        <v>5.7971014492753624E-2</v>
+        <v>3.3898305084745763E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1579,10 +1582,10 @@
         <v>2025</v>
       </c>
       <c r="C85" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D85" s="3">
-        <v>5.8823529411764705E-2</v>
+        <v>3.5211267605633804E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1593,10 +1596,10 @@
         <v>2025</v>
       </c>
       <c r="C86" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" s="3">
-        <v>7.6923076923076927E-2</v>
+        <v>3.6036036036036036E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1607,38 +1610,38 @@
         <v>2025</v>
       </c>
       <c r="C87" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D87" s="3">
-        <v>9.1743119266055051E-2</v>
+        <v>3.6363636363636362E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B88" s="2">
         <v>2025</v>
       </c>
       <c r="C88" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D88" s="3">
-        <v>9.4339622641509441E-2</v>
+        <v>3.6666666666666667E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B89" s="2">
         <v>2025</v>
       </c>
       <c r="C89" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D89" s="3">
-        <v>0.10248447204968944</v>
+        <v>3.7151702786377708E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1649,10 +1652,10 @@
         <v>2025</v>
       </c>
       <c r="C90" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D90" s="3">
-        <v>0.10256410256410256</v>
+        <v>3.8043478260869568E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1663,9 +1666,289 @@
         <v>2025</v>
       </c>
       <c r="C91" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D91" s="3">
+        <v>3.870967741935484E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C92" s="2">
+        <v>5</v>
+      </c>
+      <c r="D92" s="3">
+        <v>3.8817005545286505E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C93" s="2">
+        <v>9</v>
+      </c>
+      <c r="D93" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C95" s="2">
+        <v>4</v>
+      </c>
+      <c r="D95" s="3">
+        <v>4.195804195804196E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C96" s="2">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4.2622950819672129E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C97" s="2">
+        <v>7</v>
+      </c>
+      <c r="D97" s="3">
+        <v>4.2813455657492352E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C98" s="2">
+        <v>8</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4.4303797468354431E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3">
+        <v>4.6242774566473986E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C101" s="2">
+        <v>4</v>
+      </c>
+      <c r="D101" s="3">
+        <v>4.6357615894039736E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C102" s="2">
+        <v>7</v>
+      </c>
+      <c r="D102" s="3">
+        <v>5.5408970976253295E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1</v>
+      </c>
+      <c r="D103" s="3">
+        <v>5.7971014492753624E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C104" s="2">
+        <v>10</v>
+      </c>
+      <c r="D104" s="3">
+        <v>5.8103975535168197E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C105" s="2">
+        <v>6</v>
+      </c>
+      <c r="D105" s="3">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C106" s="2">
+        <v>6</v>
+      </c>
+      <c r="D106" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C107" s="2">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3">
+        <v>9.1743119266055051E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3">
+        <v>9.4339622641509441E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C109" s="2">
+        <v>3</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.10248447204968944</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.10256410256410256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C111" s="2">
+        <v>4</v>
+      </c>
+      <c r="D111" s="3">
         <v>0.12538226299694188</v>
       </c>
     </row>

--- a/upload/taxa-readmissao-2025.xlsx
+++ b/upload/taxa-readmissao-2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="14">
   <si>
     <t>unidade</t>
   </si>
@@ -33,10 +33,10 @@
     <t>tx_readmissao</t>
   </si>
   <si>
-    <t>HIJPII</t>
+    <t>HAC</t>
   </si>
   <si>
-    <t>HJXXIII</t>
+    <t>HEM</t>
   </si>
   <si>
     <t>HMAL</t>
@@ -51,16 +51,16 @@
     <t>MOV</t>
   </si>
   <si>
+    <t>HJXXIII</t>
+  </si>
+  <si>
     <t>HJK</t>
   </si>
   <si>
     <t>HRAD</t>
   </si>
   <si>
-    <t>HEM</t>
-  </si>
-  <si>
-    <t>HAC</t>
+    <t>HIJPII</t>
   </si>
 </sst>
 </file>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:XFD113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A482" sqref="A482:XFD483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,10 +417,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -434,7 +434,7 @@
         <v>2025</v>
       </c>
       <c r="C3" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -487,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
@@ -515,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C12" s="2">
         <v>9</v>
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -585,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C14" s="2">
         <v>11</v>
@@ -596,13 +596,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -610,13 +610,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -624,13 +624,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C17" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C18" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -652,13 +652,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -666,371 +666,371 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
-        <v>1.8552875695732839E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C21" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>1.9305019305019305E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3">
-        <v>2.4154589371980675E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C23" s="2">
         <v>8</v>
       </c>
       <c r="D23" s="3">
-        <v>3.0534351145038168E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3">
-        <v>3.3222591362126247E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C25" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3">
-        <v>3.4246575342465752E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D26" s="3">
-        <v>3.5026269702276708E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3">
-        <v>3.5211267605633804E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>3.5650623885918001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>3.6764705882352941E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3">
-        <v>3.7453183520599251E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3">
-        <v>3.9577836411609502E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C32" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D32" s="3">
-        <v>4.0322580645161289E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C33" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" s="3">
-        <v>4.1322314049586778E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C34" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3">
-        <v>5.3191489361702126E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C35" s="2">
         <v>8</v>
       </c>
       <c r="D35" s="3">
-        <v>5.597014925373134E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C36" s="2">
         <v>9</v>
       </c>
       <c r="D36" s="3">
-        <v>5.6417489421720732E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3">
-        <v>6.2500000000000003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C38" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3">
-        <v>6.6137566137566134E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3">
-        <v>7.2046109510086453E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2">
         <v>2025</v>
       </c>
       <c r="C40" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>7.2992700729927005E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2">
         <v>2025</v>
       </c>
       <c r="C41" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3">
-        <v>7.4441687344913151E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2">
         <v>2025</v>
       </c>
       <c r="C42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3">
-        <v>7.7120822622107968E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2">
         <v>2025</v>
       </c>
       <c r="C43" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D43" s="3">
-        <v>7.7777777777777776E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B44" s="2">
         <v>2025</v>
       </c>
       <c r="C44" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D44" s="3">
-        <v>8.6206896551724137E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2">
         <v>2025</v>
       </c>
       <c r="C45" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45" s="3">
-        <v>9.8314606741573031E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2">
         <v>2025</v>
@@ -1039,40 +1039,40 @@
         <v>7</v>
       </c>
       <c r="D46" s="3">
-        <v>1.0296010296010296E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2">
         <v>2025</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D47" s="3">
-        <v>1.0309278350515464E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2">
         <v>2025</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D48" s="3">
-        <v>1.0703363914373088E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2">
         <v>2025</v>
@@ -1081,152 +1081,152 @@
         <v>10</v>
       </c>
       <c r="D49" s="3">
-        <v>1.0851419031719533E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B50" s="2">
         <v>2025</v>
       </c>
       <c r="C50" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D50" s="3">
-        <v>1.1235955056179775E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B51" s="2">
         <v>2025</v>
       </c>
       <c r="C51" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="3">
-        <v>1.1876484560570071E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C52" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D52" s="3">
-        <v>1.2195121951219513E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C53" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="3">
-        <v>1.2320328542094456E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C54" s="2">
         <v>11</v>
       </c>
       <c r="D54" s="3">
-        <v>1.2987012987012988E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B55" s="2">
         <v>2025</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" s="3">
-        <v>1.3192612137203167E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2">
         <v>2025</v>
       </c>
       <c r="C56" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D56" s="3">
-        <v>1.3333333333333334E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2">
         <v>2025</v>
       </c>
       <c r="C57" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" s="3">
-        <v>1.3595166163141994E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B58" s="2">
         <v>2025</v>
       </c>
       <c r="C58" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D58" s="3">
-        <v>1.3837638376383764E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B59" s="2">
         <v>2025</v>
       </c>
       <c r="C59" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D59" s="3">
-        <v>1.5965166908563134E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" s="2">
         <v>2025</v>
@@ -1235,306 +1235,306 @@
         <v>7</v>
       </c>
       <c r="D60" s="3">
-        <v>1.6020236087689713E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2">
         <v>2025</v>
       </c>
       <c r="C61" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D61" s="3">
-        <v>1.6518424396442185E-2</v>
+        <v>1.8281535648994515E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B62" s="2">
         <v>2025</v>
       </c>
       <c r="C62" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D62" s="3">
-        <v>1.7528483786152498E-2</v>
+        <v>2.4154589371980675E-3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B63" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C63" s="2">
         <v>2</v>
       </c>
       <c r="D63" s="3">
-        <v>1.7977528089887642E-2</v>
+        <v>2.8490028490028491E-3</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B64" s="2">
         <v>2025</v>
       </c>
       <c r="C64" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D64" s="3">
-        <v>1.8518518518518517E-2</v>
+        <v>2.8694404591104736E-3</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B65" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C65" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D65" s="3">
-        <v>1.8893387314439947E-2</v>
+        <v>3.0487804878048782E-3</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B66" s="2">
         <v>2025</v>
       </c>
       <c r="C66" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="3">
-        <v>1.9534883720930232E-2</v>
+        <v>3.0534351145038168E-3</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B67" s="2">
         <v>2025</v>
       </c>
       <c r="C67" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67" s="3">
-        <v>1.9913419913419914E-2</v>
+        <v>3.2733224222585926E-3</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B68" s="2">
         <v>2025</v>
       </c>
       <c r="C68" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D68" s="3">
-        <v>2.0202020202020204E-2</v>
+        <v>3.4246575342465752E-3</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B69" s="2">
         <v>2025</v>
       </c>
       <c r="C69" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D69" s="3">
-        <v>2.1739130434782608E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B70" s="2">
         <v>2025</v>
       </c>
       <c r="C70" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D70" s="3">
-        <v>2.2508038585209004E-2</v>
+        <v>3.5149384885764497E-3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B71" s="2">
         <v>2025</v>
       </c>
       <c r="C71" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" s="3">
-        <v>2.2658610271903322E-2</v>
+        <v>3.5211267605633804E-3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B72" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D72" s="3">
-        <v>2.2911051212938006E-2</v>
+        <v>3.663003663003663E-3</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2">
         <v>2025</v>
       </c>
       <c r="C73" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D73" s="3">
-        <v>2.36013986013986E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2">
         <v>2025</v>
       </c>
       <c r="C74" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" s="3">
-        <v>2.4328859060402684E-2</v>
+        <v>3.7453183520599251E-3</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B75" s="2">
         <v>2025</v>
       </c>
       <c r="C75" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" s="3">
-        <v>2.6291931097008159E-2</v>
+        <v>3.9577836411609502E-3</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76" s="2">
         <v>2025</v>
       </c>
       <c r="C76" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="3">
-        <v>2.8776978417266189E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B77" s="2">
         <v>2025</v>
       </c>
       <c r="C77" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D77" s="3">
-        <v>2.8985507246376812E-2</v>
+        <v>4.0322580645161289E-3</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B78" s="2">
         <v>2025</v>
       </c>
       <c r="C78" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D78" s="3">
-        <v>2.9239766081871343E-2</v>
+        <v>4.1322314049586778E-3</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C79" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D79" s="3">
-        <v>2.9661016949152543E-2</v>
+        <v>4.6511627906976744E-3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B80" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C80" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" s="3">
-        <v>3.0109489051094892E-2</v>
+        <v>5.0933786078098476E-3</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C81" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="3">
-        <v>3.0701754385964911E-2</v>
+        <v>5.263157894736842E-3</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B82" s="2">
         <v>2025</v>
@@ -1543,49 +1543,49 @@
         <v>10</v>
       </c>
       <c r="D82" s="3">
-        <v>3.1088082901554404E-2</v>
+        <v>5.2816901408450703E-3</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B83" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" s="3">
-        <v>3.1645569620253167E-2</v>
+        <v>5.3191489361702126E-3</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B84" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C84" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" s="3">
-        <v>3.3898305084745763E-2</v>
+        <v>5.3475935828877002E-3</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B85" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" s="3">
-        <v>3.5211267605633804E-2</v>
+        <v>5.4054054054054057E-3</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1593,18 +1593,18 @@
         <v>4</v>
       </c>
       <c r="B86" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C86" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" s="3">
-        <v>3.6036036036036036E-2</v>
+        <v>5.5248618784530384E-3</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B87" s="2">
         <v>2025</v>
@@ -1613,12 +1613,12 @@
         <v>8</v>
       </c>
       <c r="D87" s="3">
-        <v>3.6363636363636362E-2</v>
+        <v>5.5248618784530384E-3</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B88" s="2">
         <v>2025</v>
@@ -1627,328 +1627,5508 @@
         <v>9</v>
       </c>
       <c r="D88" s="3">
-        <v>3.6666666666666667E-2</v>
+        <v>5.6417489421720732E-3</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B89" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C89" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D89" s="3">
-        <v>3.7151702786377708E-2</v>
+        <v>5.7471264367816091E-3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B90" s="2">
         <v>2025</v>
       </c>
       <c r="C90" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D90" s="3">
-        <v>3.8043478260869568E-2</v>
+        <v>5.7581573896353169E-3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B91" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C91" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D91" s="3">
-        <v>3.870967741935484E-2</v>
+        <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B92" s="2">
         <v>2025</v>
       </c>
       <c r="C92" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="3">
-        <v>3.8817005545286505E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" s="2">
         <v>2025</v>
       </c>
       <c r="C93" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>6.510416666666667E-3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C94" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D94" s="3">
-        <v>4.1666666666666664E-2</v>
+        <v>6.5146579804560263E-3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B95" s="2">
         <v>2025</v>
       </c>
       <c r="C95" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D95" s="3">
-        <v>4.195804195804196E-2</v>
+        <v>6.6137566137566134E-3</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B96" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C96" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D96" s="3">
-        <v>4.2622950819672129E-2</v>
+        <v>7.102272727272727E-3</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B97" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C97" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D97" s="3">
-        <v>4.2813455657492352E-2</v>
+        <v>7.1770334928229667E-3</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B98" s="2">
         <v>2025</v>
       </c>
       <c r="C98" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D98" s="3">
-        <v>4.4303797468354431E-2</v>
+        <v>7.2046109510086453E-3</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B99" s="2">
         <v>2025</v>
       </c>
       <c r="C99" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D99" s="3">
-        <v>4.5454545454545456E-2</v>
+        <v>7.2780203784570596E-3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B100" s="2">
         <v>2025</v>
       </c>
       <c r="C100" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D100" s="3">
-        <v>4.6242774566473986E-2</v>
+        <v>7.2992700729927005E-3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B101" s="2">
         <v>2025</v>
       </c>
       <c r="C101" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D101" s="3">
-        <v>4.6357615894039736E-2</v>
+        <v>7.4441687344913151E-3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B102" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C102" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D102" s="3">
-        <v>5.5408970976253295E-2</v>
+        <v>7.481296758104738E-3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B103" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C103" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D103" s="3">
-        <v>5.7971014492753624E-2</v>
+        <v>7.6335877862595417E-3</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B104" s="2">
         <v>2025</v>
       </c>
       <c r="C104" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D104" s="3">
-        <v>5.8103975535168197E-2</v>
+        <v>7.7120822622107968E-3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B105" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C105" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" s="3">
-        <v>5.8823529411764705E-2</v>
+        <v>7.8125E-3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B106" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C106" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D106" s="3">
-        <v>7.6923076923076927E-2</v>
+        <v>7.8125E-3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B107" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C107" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D107" s="3">
-        <v>9.1743119266055051E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B108" s="2">
         <v>2025</v>
       </c>
       <c r="C108" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D108" s="3">
-        <v>9.4339622641509441E-2</v>
+        <v>8.5959885386819486E-3</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B109" s="2">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C109" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D109" s="3">
-        <v>0.10248447204968944</v>
+        <v>9.0225563909774441E-3</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B110" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C110" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D110" s="3">
-        <v>0.10256410256410256</v>
+        <v>9.22266139657444E-3</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C111" s="2">
+        <v>6</v>
+      </c>
+      <c r="D111" s="3">
+        <v>9.4043887147335428E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3">
+        <v>9.7560975609756097E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
+        <v>9.7560975609756097E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C114" s="2">
+        <v>9</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1.0012515644555695E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C115" s="2">
+        <v>12</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1.0238907849829351E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C116" s="2">
+        <v>7</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1.0296010296010296E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1.0309278350515464E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C118" s="2">
+        <v>10</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1.0471204188481676E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C111" s="2">
-        <v>4</v>
-      </c>
-      <c r="D111" s="3">
+      <c r="B119" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C119" s="2">
+        <v>12</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1.0526315789473684E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1.0649627263045794E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1.0703363914373088E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C122" s="2">
+        <v>12</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1.0802469135802469E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1.0840108401084011E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C124" s="2">
+        <v>6</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1.098901098901099E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C125" s="2">
+        <v>4</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1.1086474501108648E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C126" s="2">
+        <v>5</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C127" s="2">
+        <v>10</v>
+      </c>
+      <c r="D127" s="3">
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C128" s="2">
+        <v>10</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1.1235955056179775E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C129" s="2">
+        <v>12</v>
+      </c>
+      <c r="D129" s="3">
+        <v>1.1774600504625737E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C130" s="2">
+        <v>5</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1.1869436201780416E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C131" s="2">
+        <v>9</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1.1876484560570071E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C132" s="2">
+        <v>9</v>
+      </c>
+      <c r="D132" s="3">
+        <v>1.1904761904761904E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C133" s="2">
+        <v>6</v>
+      </c>
+      <c r="D133" s="3">
+        <v>1.2024048096192385E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1.2096774193548387E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C135" s="2">
+        <v>11</v>
+      </c>
+      <c r="D135" s="3">
+        <v>1.2121212121212121E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C136" s="2">
+        <v>4</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1.2158054711246201E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C137" s="2">
+        <v>8</v>
+      </c>
+      <c r="D137" s="3">
+        <v>1.2195121951219513E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C138" s="2">
+        <v>8</v>
+      </c>
+      <c r="D138" s="3">
+        <v>1.2254901960784314E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C139" s="2">
+        <v>11</v>
+      </c>
+      <c r="D139" s="3">
+        <v>1.2269938650306749E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C140" s="2">
+        <v>7</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1.2345679012345678E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C141" s="2">
+        <v>3</v>
+      </c>
+      <c r="D141" s="3">
+        <v>1.2430939226519336E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C142" s="2">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1.2482662968099861E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C143" s="2">
+        <v>10</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1.277139208173691E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C144" s="2">
+        <v>8</v>
+      </c>
+      <c r="D144" s="3">
+        <v>1.2924071082390954E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C145" s="2">
+        <v>11</v>
+      </c>
+      <c r="D145" s="3">
+        <v>1.2944983818770227E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C146" s="2">
+        <v>11</v>
+      </c>
+      <c r="D146" s="3">
+        <v>1.2958963282937365E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C147" s="2">
+        <v>11</v>
+      </c>
+      <c r="D147" s="3">
+        <v>1.2987012987012988E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C148" s="2">
+        <v>10</v>
+      </c>
+      <c r="D148" s="3">
+        <v>1.3008130081300813E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C149" s="2">
+        <v>5</v>
+      </c>
+      <c r="D149" s="3">
+        <v>1.3119533527696793E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D150" s="3">
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C151" s="2">
+        <v>9</v>
+      </c>
+      <c r="D151" s="3">
+        <v>1.3182674199623353E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C152" s="2">
+        <v>5</v>
+      </c>
+      <c r="D152" s="3">
+        <v>1.3192612137203167E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C153" s="2">
+        <v>10</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1.3196480938416423E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C154" s="2">
+        <v>11</v>
+      </c>
+      <c r="D154" s="3">
+        <v>1.3245033112582781E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C155" s="2">
+        <v>9</v>
+      </c>
+      <c r="D155" s="3">
+        <v>1.3268998793727383E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C156" s="2">
+        <v>12</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1.3483146067415731E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C157" s="2">
+        <v>8</v>
+      </c>
+      <c r="D157" s="3">
+        <v>1.3595166163141994E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C158" s="2">
+        <v>7</v>
+      </c>
+      <c r="D158" s="3">
+        <v>1.3837638376383764E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C159" s="2">
+        <v>10</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1</v>
+      </c>
+      <c r="D160" s="3">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C161" s="2">
+        <v>10</v>
+      </c>
+      <c r="D161" s="3">
+        <v>1.4178482068390326E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C162" s="2">
+        <v>2</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1.4234875444839857E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C163" s="2">
+        <v>2</v>
+      </c>
+      <c r="D163" s="3">
+        <v>1.4469453376205787E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C164" s="2">
+        <v>2</v>
+      </c>
+      <c r="D164" s="3">
+        <v>1.4492753623188406E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C165" s="2">
+        <v>7</v>
+      </c>
+      <c r="D165" s="3">
+        <v>1.4513788098693759E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C166" s="2">
+        <v>4</v>
+      </c>
+      <c r="D166" s="3">
+        <v>1.4705882352941176E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C167" s="2">
+        <v>7</v>
+      </c>
+      <c r="D167" s="3">
+        <v>1.4792899408284023E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C168" s="2">
+        <v>4</v>
+      </c>
+      <c r="D168" s="3">
+        <v>1.4814814814814815E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C169" s="2">
+        <v>5</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1.4942528735632184E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C170" s="2">
+        <v>6</v>
+      </c>
+      <c r="D170" s="3">
+        <v>1.4992503748125937E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C171" s="2">
+        <v>10</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1.5665796344647518E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C172" s="2">
+        <v>3</v>
+      </c>
+      <c r="D172" s="3">
+        <v>1.5695067264573991E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C173" s="2">
+        <v>2</v>
+      </c>
+      <c r="D173" s="3">
+        <v>1.5965166908563134E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C174" s="2">
+        <v>7</v>
+      </c>
+      <c r="D174" s="3">
+        <v>1.6020236087689713E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1</v>
+      </c>
+      <c r="D175" s="3">
+        <v>1.6059957173447537E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C176" s="2">
+        <v>12</v>
+      </c>
+      <c r="D176" s="3">
+        <v>1.6224188790560472E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C177" s="2">
+        <v>10</v>
+      </c>
+      <c r="D177" s="3">
+        <v>1.6518424396442185E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C178" s="2">
+        <v>8</v>
+      </c>
+      <c r="D178" s="3">
+        <v>1.6616314199395771E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C179" s="2">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3">
+        <v>1.6726403823178016E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C180" s="2">
+        <v>10</v>
+      </c>
+      <c r="D180" s="3">
+        <v>1.680672268907563E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C181" s="2">
+        <v>10</v>
+      </c>
+      <c r="D181" s="3">
+        <v>1.6853932584269662E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1.7211703958691909E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C183" s="2">
+        <v>6</v>
+      </c>
+      <c r="D183" s="3">
+        <v>1.7241379310344827E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C184" s="2">
+        <v>8</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1.7528483786152498E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C185" s="2">
+        <v>3</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1.7699115044247787E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C186" s="2">
+        <v>11</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1.7711171662125342E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C187" s="2">
+        <v>1</v>
+      </c>
+      <c r="D187" s="3">
+        <v>1.7725258493353029E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C188" s="2">
+        <v>7</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1.7745302713987474E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1.7758046614872364E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C190" s="2">
+        <v>9</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1.7799352750809062E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C191" s="2">
+        <v>6</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1.7811704834605598E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C192" s="2">
+        <v>4</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1.78359096313912E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C193" s="2">
+        <v>8</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1.7897091722595078E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C194" s="2">
+        <v>2</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1.7897091722595078E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C195" s="2">
+        <v>6</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1.7921146953405017E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C196" s="2">
+        <v>5</v>
+      </c>
+      <c r="D196" s="3">
+        <v>1.7937219730941704E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C197" s="2">
+        <v>5</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1.804123711340206E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C198" s="2">
+        <v>8</v>
+      </c>
+      <c r="D198" s="3">
+        <v>1.8159806295399514E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C199" s="2">
+        <v>6</v>
+      </c>
+      <c r="D199" s="3">
+        <v>1.8292682926829267E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C200" s="2">
+        <v>2</v>
+      </c>
+      <c r="D200" s="3">
+        <v>1.8292682926829267E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C201" s="2">
+        <v>2</v>
+      </c>
+      <c r="D201" s="3">
+        <v>1.839464882943144E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C202" s="2">
+        <v>3</v>
+      </c>
+      <c r="D202" s="3">
+        <v>1.8421052631578946E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1</v>
+      </c>
+      <c r="D203" s="3">
+        <v>1.8518518518518517E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C204" s="2">
+        <v>4</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1.8617021276595744E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1</v>
+      </c>
+      <c r="D205" s="3">
+        <v>1.877133105802048E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C206" s="2">
+        <v>6</v>
+      </c>
+      <c r="D206" s="3">
+        <v>1.8893387314439947E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C207" s="2">
+        <v>2</v>
+      </c>
+      <c r="D207" s="3">
+        <v>1.891891891891892E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1</v>
+      </c>
+      <c r="D208" s="3">
+        <v>1.9138755980861243E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C209" s="2">
+        <v>12</v>
+      </c>
+      <c r="D209" s="3">
+        <v>1.9206145966709345E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C210" s="2">
+        <v>6</v>
+      </c>
+      <c r="D210" s="3">
+        <v>1.9210245464247599E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C211" s="2">
+        <v>9</v>
+      </c>
+      <c r="D211" s="3">
+        <v>1.9345238095238096E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C212" s="2">
+        <v>9</v>
+      </c>
+      <c r="D212" s="3">
+        <v>1.9534883720930232E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C213" s="2">
+        <v>6</v>
+      </c>
+      <c r="D213" s="3">
+        <v>1.969057665260197E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C214" s="2">
+        <v>4</v>
+      </c>
+      <c r="D214" s="3">
+        <v>1.9704433497536946E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C215" s="2">
+        <v>9</v>
+      </c>
+      <c r="D215" s="3">
+        <v>1.9801980198019802E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1</v>
+      </c>
+      <c r="D216" s="3">
+        <v>1.984126984126984E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C217" s="2">
+        <v>3</v>
+      </c>
+      <c r="D217" s="3">
+        <v>1.984126984126984E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C218" s="2">
+        <v>8</v>
+      </c>
+      <c r="D218" s="3">
+        <v>1.9858156028368795E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C219" s="2">
+        <v>5</v>
+      </c>
+      <c r="D219" s="3">
+        <v>1.9900497512437811E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C220" s="2">
+        <v>9</v>
+      </c>
+      <c r="D220" s="3">
+        <v>1.9900497512437811E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C221" s="2">
+        <v>1</v>
+      </c>
+      <c r="D221" s="3">
+        <v>1.9913419913419914E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C222" s="2">
+        <v>9</v>
+      </c>
+      <c r="D222" s="3">
+        <v>2.004008016032064E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C223" s="2">
+        <v>12</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2.0100502512562814E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2.0151133501259445E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C225" s="2">
+        <v>12</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2.0202020202020204E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C226" s="2">
+        <v>2</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2.0202020202020204E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C227" s="2">
+        <v>8</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2.0316027088036117E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C228" s="2">
+        <v>4</v>
+      </c>
+      <c r="D228" s="3">
+        <v>2.0356234096692113E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C229" s="2">
+        <v>7</v>
+      </c>
+      <c r="D229" s="3">
+        <v>2.0378457059679767E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C230" s="2">
+        <v>5</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2.0524515393386546E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C231" s="2">
+        <v>6</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2.0604395604395604E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C232" s="2">
+        <v>5</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2.0689655172413793E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C233" s="2">
+        <v>4</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2.0802377414561663E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C234" s="2">
+        <v>5</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C235" s="2">
+        <v>5</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2.0860495436766623E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C236" s="2">
+        <v>11</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2.1337126600284494E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C237" s="2">
+        <v>11</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2.1472392638036811E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C238" s="2">
+        <v>7</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2.148997134670487E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C239" s="2">
+        <v>9</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2.1739130434782608E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C240" s="2">
+        <v>8</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2.1848739495798318E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C241" s="2">
+        <v>10</v>
+      </c>
+      <c r="D241" s="3">
+        <v>2.1885521885521887E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C242" s="2">
+        <v>12</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2.2123893805309734E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C243" s="2">
+        <v>8</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2.2267206477732792E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C244" s="2">
+        <v>11</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.2321428571428572E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C245" s="2">
+        <v>12</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2.2388059701492536E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C246" s="2">
+        <v>9</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2.2517911975435005E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C247" s="2">
+        <v>9</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2.2556390977443608E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C248" s="2">
+        <v>7</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2.2624434389140271E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C249" s="2">
+        <v>4</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2.2658610271903322E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C250" s="2">
+        <v>12</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2.2757697456492636E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>8</v>
+      </c>
+      <c r="B251" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C251" s="2">
+        <v>5</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2.2883295194508008E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C252" s="2">
+        <v>7</v>
+      </c>
+      <c r="D252" s="3">
+        <v>2.2900763358778626E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1</v>
+      </c>
+      <c r="D253" s="3">
+        <v>2.2911051212938006E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C254" s="2">
+        <v>3</v>
+      </c>
+      <c r="D254" s="3">
+        <v>2.292490118577075E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>8</v>
+      </c>
+      <c r="B255" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C255" s="2">
+        <v>12</v>
+      </c>
+      <c r="D255" s="3">
+        <v>2.3310023310023312E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C256" s="2">
+        <v>6</v>
+      </c>
+      <c r="D256" s="3">
+        <v>2.3426061493411421E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C257" s="2">
+        <v>7</v>
+      </c>
+      <c r="D257" s="3">
+        <v>2.3460410557184751E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C258" s="2">
+        <v>4</v>
+      </c>
+      <c r="D258" s="3">
+        <v>2.36013986013986E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C259" s="2">
+        <v>7</v>
+      </c>
+      <c r="D259" s="3">
+        <v>2.3640661938534278E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C260" s="2">
+        <v>1</v>
+      </c>
+      <c r="D260" s="3">
+        <v>2.3655913978494623E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C261" s="2">
+        <v>4</v>
+      </c>
+      <c r="D261" s="3">
+        <v>2.3696682464454975E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B262" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C262" s="2">
+        <v>8</v>
+      </c>
+      <c r="D262" s="3">
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C263" s="2">
+        <v>6</v>
+      </c>
+      <c r="D263" s="3">
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C264" s="2">
+        <v>11</v>
+      </c>
+      <c r="D264" s="3">
+        <v>2.3909985935302389E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C265" s="2">
+        <v>7</v>
+      </c>
+      <c r="D265" s="3">
+        <v>2.4193548387096774E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C266" s="2">
+        <v>1</v>
+      </c>
+      <c r="D266" s="3">
+        <v>2.4263431542461005E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C267" s="2">
+        <v>3</v>
+      </c>
+      <c r="D267" s="3">
+        <v>2.4328859060402684E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C268" s="2">
+        <v>6</v>
+      </c>
+      <c r="D268" s="3">
+        <v>2.4390243902439025E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C269" s="2">
+        <v>12</v>
+      </c>
+      <c r="D269" s="3">
+        <v>2.4675324675324677E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>12</v>
+      </c>
+      <c r="B270" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C270" s="2">
+        <v>7</v>
+      </c>
+      <c r="D270" s="3">
+        <v>2.4844720496894408E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C271" s="2">
+        <v>1</v>
+      </c>
+      <c r="D271" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C272" s="2">
+        <v>9</v>
+      </c>
+      <c r="D272" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C273" s="2">
+        <v>11</v>
+      </c>
+      <c r="D273" s="3">
+        <v>2.5142857142857144E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C274" s="2">
+        <v>3</v>
+      </c>
+      <c r="D274" s="3">
+        <v>2.5210084033613446E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C275" s="2">
+        <v>12</v>
+      </c>
+      <c r="D275" s="3">
+        <v>2.5236593059936908E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C276" s="2">
+        <v>1</v>
+      </c>
+      <c r="D276" s="3">
+        <v>2.5280898876404494E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C277" s="2">
+        <v>7</v>
+      </c>
+      <c r="D277" s="3">
+        <v>2.5316455696202531E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C278" s="2">
+        <v>9</v>
+      </c>
+      <c r="D278" s="3">
+        <v>2.5386313465783666E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C279" s="2">
+        <v>3</v>
+      </c>
+      <c r="D279" s="3">
+        <v>2.551640340218712E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C280" s="2">
+        <v>8</v>
+      </c>
+      <c r="D280" s="3">
+        <v>2.556237218813906E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C281" s="2">
+        <v>4</v>
+      </c>
+      <c r="D281" s="3">
+        <v>2.5563909774436091E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C282" s="2">
+        <v>3</v>
+      </c>
+      <c r="D282" s="3">
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C283" s="2">
+        <v>12</v>
+      </c>
+      <c r="D283" s="3">
+        <v>2.569593147751606E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C284" s="2">
+        <v>8</v>
+      </c>
+      <c r="D284" s="3">
+        <v>2.571041948579161E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C285" s="2">
+        <v>10</v>
+      </c>
+      <c r="D285" s="3">
+        <v>2.5742574257425741E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C286" s="2">
+        <v>3</v>
+      </c>
+      <c r="D286" s="3">
+        <v>2.5773195876288658E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>9</v>
+      </c>
+      <c r="B287" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C287" s="2">
+        <v>10</v>
+      </c>
+      <c r="D287" s="3">
+        <v>2.5780189959294438E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>9</v>
+      </c>
+      <c r="B288" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C288" s="2">
+        <v>8</v>
+      </c>
+      <c r="D288" s="3">
+        <v>2.6239067055393587E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>10</v>
+      </c>
+      <c r="B289" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C289" s="2">
+        <v>6</v>
+      </c>
+      <c r="D289" s="3">
+        <v>2.6291931097008159E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C290" s="2">
+        <v>1</v>
+      </c>
+      <c r="D290" s="3">
+        <v>2.6573426573426574E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C291" s="2">
+        <v>10</v>
+      </c>
+      <c r="D291" s="3">
+        <v>2.6595744680851064E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C292" s="2">
+        <v>8</v>
+      </c>
+      <c r="D292" s="3">
+        <v>2.6845637583892617E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C293" s="2">
+        <v>6</v>
+      </c>
+      <c r="D293" s="3">
+        <v>2.6894865525672371E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>9</v>
+      </c>
+      <c r="B294" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C294" s="2">
+        <v>4</v>
+      </c>
+      <c r="D294" s="3">
+        <v>2.6917900403768506E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>12</v>
+      </c>
+      <c r="B295" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C295" s="2">
+        <v>2</v>
+      </c>
+      <c r="D295" s="3">
+        <v>2.694136291600634E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C296" s="2">
+        <v>12</v>
+      </c>
+      <c r="D296" s="3">
+        <v>2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>12</v>
+      </c>
+      <c r="B297" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C297" s="2">
+        <v>5</v>
+      </c>
+      <c r="D297" s="3">
+        <v>2.7065527065527065E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C298" s="2">
+        <v>10</v>
+      </c>
+      <c r="D298" s="3">
+        <v>2.717391304347826E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C299" s="2">
+        <v>5</v>
+      </c>
+      <c r="D299" s="3">
+        <v>2.7472527472527472E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C300" s="2">
+        <v>5</v>
+      </c>
+      <c r="D300" s="3">
+        <v>2.7586206896551724E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C301" s="2">
+        <v>3</v>
+      </c>
+      <c r="D301" s="3">
+        <v>2.7902790279027902E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C302" s="2">
+        <v>8</v>
+      </c>
+      <c r="D302" s="3">
+        <v>2.7932960893854747E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>12</v>
+      </c>
+      <c r="B303" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C303" s="2">
+        <v>5</v>
+      </c>
+      <c r="D303" s="3">
+        <v>2.7941176470588237E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C304" s="2">
+        <v>3</v>
+      </c>
+      <c r="D304" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>8</v>
+      </c>
+      <c r="B305" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C305" s="2">
+        <v>7</v>
+      </c>
+      <c r="D305" s="3">
+        <v>2.8077753779697623E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C306" s="2">
+        <v>10</v>
+      </c>
+      <c r="D306" s="3">
+        <v>2.8089887640449437E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>12</v>
+      </c>
+      <c r="B307" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C307" s="2">
+        <v>3</v>
+      </c>
+      <c r="D307" s="3">
+        <v>2.8189910979228485E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C308" s="2">
+        <v>2</v>
+      </c>
+      <c r="D308" s="3">
+        <v>2.8477546549835708E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C309" s="2">
+        <v>2</v>
+      </c>
+      <c r="D309" s="3">
+        <v>2.8532608695652172E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>8</v>
+      </c>
+      <c r="B310" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C310" s="2">
+        <v>6</v>
+      </c>
+      <c r="D310" s="3">
+        <v>2.8662420382165606E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C311" s="2">
+        <v>5</v>
+      </c>
+      <c r="D311" s="3">
+        <v>2.8699551569506727E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C312" s="2">
+        <v>3</v>
+      </c>
+      <c r="D312" s="3">
+        <v>2.8985507246376812E-2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C313" s="2">
+        <v>3</v>
+      </c>
+      <c r="D313" s="3">
+        <v>2.9223744292237442E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C314" s="2">
+        <v>4</v>
+      </c>
+      <c r="D314" s="3">
+        <v>2.9239766081871343E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C315" s="2">
+        <v>2</v>
+      </c>
+      <c r="D315" s="3">
+        <v>2.9268292682926831E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>7</v>
+      </c>
+      <c r="B316" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C316" s="2">
+        <v>3</v>
+      </c>
+      <c r="D316" s="3">
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>11</v>
+      </c>
+      <c r="B317" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C317" s="2">
+        <v>4</v>
+      </c>
+      <c r="D317" s="3">
+        <v>2.9661016949152543E-2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C318" s="2">
+        <v>5</v>
+      </c>
+      <c r="D318" s="3">
+        <v>2.9661016949152543E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>11</v>
+      </c>
+      <c r="B319" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C319" s="2">
+        <v>9</v>
+      </c>
+      <c r="D319" s="3">
+        <v>2.9676258992805755E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>10</v>
+      </c>
+      <c r="B320" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C320" s="2">
+        <v>11</v>
+      </c>
+      <c r="D320" s="3">
+        <v>3.0430220356768102E-2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>8</v>
+      </c>
+      <c r="B321" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C321" s="2">
+        <v>2</v>
+      </c>
+      <c r="D321" s="3">
+        <v>3.0444964871194378E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>12</v>
+      </c>
+      <c r="B322" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C322" s="2">
+        <v>1</v>
+      </c>
+      <c r="D322" s="3">
+        <v>3.0523255813953487E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C323" s="2">
+        <v>11</v>
+      </c>
+      <c r="D323" s="3">
+        <v>3.0534351145038167E-2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>13</v>
+      </c>
+      <c r="B324" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C324" s="2">
+        <v>10</v>
+      </c>
+      <c r="D324" s="3">
+        <v>3.0651340996168581E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C325" s="2">
+        <v>4</v>
+      </c>
+      <c r="D325" s="3">
+        <v>3.0651340996168581E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>13</v>
+      </c>
+      <c r="B326" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C326" s="2">
+        <v>6</v>
+      </c>
+      <c r="D326" s="3">
+        <v>3.0701754385964911E-2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C327" s="2">
+        <v>10</v>
+      </c>
+      <c r="D327" s="3">
+        <v>3.1088082901554404E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>12</v>
+      </c>
+      <c r="B328" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C328" s="2">
+        <v>3</v>
+      </c>
+      <c r="D328" s="3">
+        <v>3.1339031339031341E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>12</v>
+      </c>
+      <c r="B329" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C329" s="2">
+        <v>7</v>
+      </c>
+      <c r="D329" s="3">
+        <v>3.1578947368421054E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>12</v>
+      </c>
+      <c r="B330" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C330" s="2">
+        <v>10</v>
+      </c>
+      <c r="D330" s="3">
+        <v>3.1578947368421054E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C331" s="2">
+        <v>3</v>
+      </c>
+      <c r="D331" s="3">
+        <v>3.1645569620253167E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>12</v>
+      </c>
+      <c r="B332" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C332" s="2">
+        <v>9</v>
+      </c>
+      <c r="D332" s="3">
+        <v>3.1724137931034485E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C333" s="2">
+        <v>9</v>
+      </c>
+      <c r="D333" s="3">
+        <v>3.2051282051282048E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>12</v>
+      </c>
+      <c r="B334" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C334" s="2">
+        <v>10</v>
+      </c>
+      <c r="D334" s="3">
+        <v>3.231597845601436E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C335" s="2">
+        <v>7</v>
+      </c>
+      <c r="D335" s="3">
+        <v>3.2432432432432434E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>12</v>
+      </c>
+      <c r="B336" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C336" s="2">
+        <v>9</v>
+      </c>
+      <c r="D336" s="3">
+        <v>3.2786885245901641E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B337" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C337" s="2">
+        <v>3</v>
+      </c>
+      <c r="D337" s="3">
+        <v>3.3018867924528301E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C338" s="2">
+        <v>1</v>
+      </c>
+      <c r="D338" s="3">
+        <v>3.3240997229916899E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C339" s="2">
+        <v>9</v>
+      </c>
+      <c r="D339" s="3">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C340" s="2">
+        <v>12</v>
+      </c>
+      <c r="D340" s="3">
+        <v>3.3467202141900937E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C341" s="2">
+        <v>8</v>
+      </c>
+      <c r="D341" s="3">
+        <v>3.3492822966507178E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>5</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C342" s="2">
+        <v>4</v>
+      </c>
+      <c r="D342" s="3">
+        <v>3.3557046979865772E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C343" s="2">
+        <v>10</v>
+      </c>
+      <c r="D343" s="3">
+        <v>3.3621517771373677E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>11</v>
+      </c>
+      <c r="B344" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C344" s="2">
+        <v>2</v>
+      </c>
+      <c r="D344" s="3">
+        <v>3.3898305084745763E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C345" s="2">
+        <v>2</v>
+      </c>
+      <c r="D345" s="3">
+        <v>3.3898305084745763E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C346" s="2">
+        <v>11</v>
+      </c>
+      <c r="D346" s="3">
+        <v>3.4253092293054233E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>13</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C347" s="2">
+        <v>8</v>
+      </c>
+      <c r="D347" s="3">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C348" s="2">
+        <v>8</v>
+      </c>
+      <c r="D348" s="3">
+        <v>3.4653465346534656E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C349" s="2">
+        <v>6</v>
+      </c>
+      <c r="D349" s="3">
+        <v>3.4883720930232558E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C350" s="2">
+        <v>5</v>
+      </c>
+      <c r="D350" s="3">
+        <v>3.490136570561457E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C351" s="2">
+        <v>1</v>
+      </c>
+      <c r="D351" s="3">
+        <v>3.5211267605633804E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>12</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C352" s="2">
+        <v>11</v>
+      </c>
+      <c r="D352" s="3">
+        <v>3.5256410256410256E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C353" s="2">
+        <v>1</v>
+      </c>
+      <c r="D353" s="3">
+        <v>3.5791757049891543E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>12</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C354" s="2">
+        <v>8</v>
+      </c>
+      <c r="D354" s="3">
+        <v>3.5825545171339561E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C355" s="2">
+        <v>5</v>
+      </c>
+      <c r="D355" s="3">
+        <v>3.5856573705179286E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C356" s="2">
+        <v>5</v>
+      </c>
+      <c r="D356" s="3">
+        <v>3.5874439461883408E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C357" s="2">
+        <v>9</v>
+      </c>
+      <c r="D357" s="3">
+        <v>3.588290840415486E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>13</v>
+      </c>
+      <c r="B358" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C358" s="2">
+        <v>3</v>
+      </c>
+      <c r="D358" s="3">
+        <v>3.6036036036036036E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>10</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C359" s="2">
+        <v>7</v>
+      </c>
+      <c r="D359" s="3">
+        <v>3.6346691519105315E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>5</v>
+      </c>
+      <c r="B360" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C360" s="2">
+        <v>8</v>
+      </c>
+      <c r="D360" s="3">
+        <v>3.6363636363636362E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>11</v>
+      </c>
+      <c r="B361" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C361" s="2">
+        <v>3</v>
+      </c>
+      <c r="D361" s="3">
+        <v>3.6384976525821594E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>10</v>
+      </c>
+      <c r="B362" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C362" s="2">
+        <v>6</v>
+      </c>
+      <c r="D362" s="3">
+        <v>3.6400404448938321E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C363" s="2">
+        <v>1</v>
+      </c>
+      <c r="D363" s="3">
+        <v>3.6458333333333336E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>11</v>
+      </c>
+      <c r="B364" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C364" s="2">
+        <v>4</v>
+      </c>
+      <c r="D364" s="3">
+        <v>3.6529680365296802E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C365" s="2">
+        <v>4</v>
+      </c>
+      <c r="D365" s="3">
+        <v>3.6585365853658534E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>13</v>
+      </c>
+      <c r="B366" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C366" s="2">
+        <v>9</v>
+      </c>
+      <c r="D366" s="3">
+        <v>3.6666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C367" s="2">
+        <v>8</v>
+      </c>
+      <c r="D367" s="3">
+        <v>3.6764705882352942E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B368" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C368" s="2">
+        <v>10</v>
+      </c>
+      <c r="D368" s="3">
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C369" s="2">
+        <v>2</v>
+      </c>
+      <c r="D369" s="3">
+        <v>3.7320574162679428E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C370" s="2">
+        <v>10</v>
+      </c>
+      <c r="D370" s="3">
+        <v>3.7521815008726006E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B371" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C371" s="2">
+        <v>10</v>
+      </c>
+      <c r="D371" s="3">
+        <v>3.7656903765690378E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C372" s="2">
+        <v>9</v>
+      </c>
+      <c r="D372" s="3">
+        <v>3.783783783783784E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C373" s="2">
+        <v>7</v>
+      </c>
+      <c r="D373" s="3">
+        <v>3.8043478260869568E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>10</v>
+      </c>
+      <c r="B374" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C374" s="2">
+        <v>12</v>
+      </c>
+      <c r="D374" s="3">
+        <v>3.8277511961722487E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C375" s="2">
+        <v>6</v>
+      </c>
+      <c r="D375" s="3">
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C376" s="2">
+        <v>6</v>
+      </c>
+      <c r="D376" s="3">
+        <v>3.870967741935484E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>13</v>
+      </c>
+      <c r="B377" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C377" s="2">
+        <v>5</v>
+      </c>
+      <c r="D377" s="3">
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>11</v>
+      </c>
+      <c r="B378" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C378" s="2">
+        <v>8</v>
+      </c>
+      <c r="D378" s="3">
+        <v>3.9007092198581561E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C379" s="2">
+        <v>6</v>
+      </c>
+      <c r="D379" s="3">
+        <v>3.9745627980922099E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C380" s="2">
+        <v>11</v>
+      </c>
+      <c r="D380" s="3">
+        <v>3.9772727272727272E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>12</v>
+      </c>
+      <c r="B381" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C381" s="2">
+        <v>11</v>
+      </c>
+      <c r="D381" s="3">
+        <v>3.9816232771822356E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C382" s="2">
+        <v>6</v>
+      </c>
+      <c r="D382" s="3">
+        <v>3.9858281665190433E-2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>11</v>
+      </c>
+      <c r="B383" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C383" s="2">
+        <v>11</v>
+      </c>
+      <c r="D383" s="3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>10</v>
+      </c>
+      <c r="B384" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C384" s="2">
+        <v>4</v>
+      </c>
+      <c r="D384" s="3">
+        <v>4.018691588785047E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>5</v>
+      </c>
+      <c r="B385" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C385" s="2">
+        <v>10</v>
+      </c>
+      <c r="D385" s="3">
+        <v>4.065040650406504E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B386" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C386" s="2">
+        <v>5</v>
+      </c>
+      <c r="D386" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B387" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C387" s="2">
+        <v>9</v>
+      </c>
+      <c r="D387" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C388" s="2">
+        <v>1</v>
+      </c>
+      <c r="D388" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>12</v>
+      </c>
+      <c r="B389" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C389" s="2">
+        <v>7</v>
+      </c>
+      <c r="D389" s="3">
+        <v>4.1907514450867052E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>13</v>
+      </c>
+      <c r="B390" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C390" s="2">
+        <v>4</v>
+      </c>
+      <c r="D390" s="3">
+        <v>4.195804195804196E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>11</v>
+      </c>
+      <c r="B391" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C391" s="2">
+        <v>4</v>
+      </c>
+      <c r="D391" s="3">
+        <v>4.2199488491048591E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B392" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C392" s="2">
+        <v>8</v>
+      </c>
+      <c r="D392" s="3">
+        <v>4.2622950819672129E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C393" s="2">
+        <v>7</v>
+      </c>
+      <c r="D393" s="3">
+        <v>4.2813455657492352E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C394" s="2">
+        <v>12</v>
+      </c>
+      <c r="D394" s="3">
+        <v>4.3043043043043044E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C395" s="2">
+        <v>12</v>
+      </c>
+      <c r="D395" s="3">
+        <v>4.3401240035429584E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>13</v>
+      </c>
+      <c r="B396" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C396" s="2">
+        <v>8</v>
+      </c>
+      <c r="D396" s="3">
+        <v>4.4303797468354431E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>11</v>
+      </c>
+      <c r="B397" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C397" s="2">
+        <v>7</v>
+      </c>
+      <c r="D397" s="3">
+        <v>4.4326241134751775E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B398" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C398" s="2">
+        <v>1</v>
+      </c>
+      <c r="D398" s="3">
+        <v>4.4334975369458129E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C399" s="2">
+        <v>5</v>
+      </c>
+      <c r="D399" s="3">
+        <v>4.4426494345718902E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C400" s="2">
+        <v>9</v>
+      </c>
+      <c r="D400" s="3">
+        <v>4.4964028776978415E-2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B401" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C401" s="2">
+        <v>3</v>
+      </c>
+      <c r="D401" s="3">
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>5</v>
+      </c>
+      <c r="B402" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C402" s="2">
+        <v>2</v>
+      </c>
+      <c r="D402" s="3">
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>13</v>
+      </c>
+      <c r="B403" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C403" s="2">
+        <v>11</v>
+      </c>
+      <c r="D403" s="3">
+        <v>4.5563549160671464E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>13</v>
+      </c>
+      <c r="B404" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C404" s="2">
+        <v>2</v>
+      </c>
+      <c r="D404" s="3">
+        <v>4.6242774566473986E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>12</v>
+      </c>
+      <c r="B405" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C405" s="2">
+        <v>4</v>
+      </c>
+      <c r="D405" s="3">
+        <v>4.6357615894039736E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>13</v>
+      </c>
+      <c r="B406" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C406" s="2">
+        <v>2</v>
+      </c>
+      <c r="D406" s="3">
+        <v>4.6728971962616821E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C407" s="2">
+        <v>3</v>
+      </c>
+      <c r="D407" s="3">
+        <v>4.8859934853420196E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C408" s="2">
+        <v>12</v>
+      </c>
+      <c r="D408" s="3">
+        <v>4.8951048951048952E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>10</v>
+      </c>
+      <c r="B409" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C409" s="2">
+        <v>12</v>
+      </c>
+      <c r="D409" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B410" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C410" s="2">
+        <v>9</v>
+      </c>
+      <c r="D410" s="3">
+        <v>5.0251256281407038E-2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C411" s="2">
+        <v>7</v>
+      </c>
+      <c r="D411" s="3">
+        <v>5.0909090909090911E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>13</v>
+      </c>
+      <c r="B412" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C412" s="2">
+        <v>6</v>
+      </c>
+      <c r="D412" s="3">
+        <v>5.2369077306733167E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B413" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C413" s="2">
+        <v>2</v>
+      </c>
+      <c r="D413" s="3">
+        <v>5.3571428571428568E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>13</v>
+      </c>
+      <c r="B414" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C414" s="2">
+        <v>3</v>
+      </c>
+      <c r="D414" s="3">
+        <v>5.3677932405566599E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>10</v>
+      </c>
+      <c r="B415" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C415" s="2">
+        <v>11</v>
+      </c>
+      <c r="D415" s="3">
+        <v>5.4136874361593465E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>13</v>
+      </c>
+      <c r="B416" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C416" s="2">
+        <v>3</v>
+      </c>
+      <c r="D416" s="3">
+        <v>5.4365733113673806E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B417" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C417" s="2">
+        <v>4</v>
+      </c>
+      <c r="D417" s="3">
+        <v>5.5045871559633031E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>13</v>
+      </c>
+      <c r="B418" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C418" s="2">
+        <v>7</v>
+      </c>
+      <c r="D418" s="3">
+        <v>5.5408970976253295E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B419" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C419" s="2">
+        <v>11</v>
+      </c>
+      <c r="D419" s="3">
+        <v>5.6994818652849742E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B420" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C420" s="2">
+        <v>3</v>
+      </c>
+      <c r="D420" s="3">
+        <v>5.7046979865771813E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>5</v>
+      </c>
+      <c r="B421" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C421" s="2">
+        <v>4</v>
+      </c>
+      <c r="D421" s="3">
+        <v>5.7851239669421489E-2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>13</v>
+      </c>
+      <c r="B422" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C422" s="2">
+        <v>1</v>
+      </c>
+      <c r="D422" s="3">
+        <v>5.7971014492753624E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B423" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C423" s="2">
+        <v>9</v>
+      </c>
+      <c r="D423" s="3">
+        <v>5.8020477815699661E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B424" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C424" s="2">
+        <v>6</v>
+      </c>
+      <c r="D424" s="3">
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>13</v>
+      </c>
+      <c r="B425" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C425" s="2">
+        <v>5</v>
+      </c>
+      <c r="D425" s="3">
+        <v>6.0240963855421686E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B426" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C426" s="2">
+        <v>6</v>
+      </c>
+      <c r="D426" s="3">
+        <v>6.0714285714285714E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>13</v>
+      </c>
+      <c r="B427" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C427" s="2">
+        <v>12</v>
+      </c>
+      <c r="D427" s="3">
+        <v>6.1046511627906974E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>13</v>
+      </c>
+      <c r="B428" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C428" s="2">
+        <v>3</v>
+      </c>
+      <c r="D428" s="3">
+        <v>6.1162079510703363E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>5</v>
+      </c>
+      <c r="B429" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C429" s="2">
+        <v>3</v>
+      </c>
+      <c r="D429" s="3">
+        <v>6.1728395061728392E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>5</v>
+      </c>
+      <c r="B430" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C430" s="2">
+        <v>6</v>
+      </c>
+      <c r="D430" s="3">
+        <v>6.1728395061728392E-2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>13</v>
+      </c>
+      <c r="B431" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C431" s="2">
+        <v>12</v>
+      </c>
+      <c r="D431" s="3">
+        <v>6.2305295950155763E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" t="s">
+        <v>13</v>
+      </c>
+      <c r="B432" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C432" s="2">
+        <v>1</v>
+      </c>
+      <c r="D432" s="3">
+        <v>6.3291139240506333E-2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" t="s">
+        <v>13</v>
+      </c>
+      <c r="B433" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C433" s="2">
+        <v>7</v>
+      </c>
+      <c r="D433" s="3">
+        <v>6.3492063492063489E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" t="s">
+        <v>13</v>
+      </c>
+      <c r="B434" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C434" s="2">
+        <v>2</v>
+      </c>
+      <c r="D434" s="3">
+        <v>6.3725490196078427E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" t="s">
+        <v>7</v>
+      </c>
+      <c r="B435" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C435" s="2">
+        <v>11</v>
+      </c>
+      <c r="D435" s="3">
+        <v>6.5789473684210523E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" t="s">
+        <v>13</v>
+      </c>
+      <c r="B436" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C436" s="2">
+        <v>2</v>
+      </c>
+      <c r="D436" s="3">
+        <v>6.6825775656324582E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" t="s">
+        <v>13</v>
+      </c>
+      <c r="B437" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C437" s="2">
+        <v>5</v>
+      </c>
+      <c r="D437" s="3">
+        <v>6.768558951965066E-2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" t="s">
+        <v>13</v>
+      </c>
+      <c r="B438" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C438" s="2">
+        <v>9</v>
+      </c>
+      <c r="D438" s="3">
+        <v>6.8493150684931503E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" t="s">
+        <v>13</v>
+      </c>
+      <c r="B439" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C439" s="2">
+        <v>8</v>
+      </c>
+      <c r="D439" s="3">
+        <v>6.9518716577540107E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" t="s">
+        <v>13</v>
+      </c>
+      <c r="B440" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C440" s="2">
+        <v>10</v>
+      </c>
+      <c r="D440" s="3">
+        <v>7.0336391437308868E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" t="s">
+        <v>13</v>
+      </c>
+      <c r="B441" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C441" s="2">
+        <v>4</v>
+      </c>
+      <c r="D441" s="3">
+        <v>7.0631970260223054E-2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" t="s">
+        <v>13</v>
+      </c>
+      <c r="B442" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C442" s="2">
+        <v>11</v>
+      </c>
+      <c r="D442" s="3">
+        <v>7.1207430340557279E-2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" t="s">
+        <v>4</v>
+      </c>
+      <c r="B443" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C443" s="2">
+        <v>1</v>
+      </c>
+      <c r="D443" s="3">
+        <v>7.2243346007604556E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" t="s">
+        <v>13</v>
+      </c>
+      <c r="B444" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C444" s="2">
+        <v>4</v>
+      </c>
+      <c r="D444" s="3">
+        <v>7.3289902280130298E-2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B445" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C445" s="2">
+        <v>7</v>
+      </c>
+      <c r="D445" s="3">
+        <v>7.3770491803278687E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B446" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C446" s="2">
+        <v>12</v>
+      </c>
+      <c r="D446" s="3">
+        <v>7.575757575757576E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" t="s">
+        <v>11</v>
+      </c>
+      <c r="B447" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C447" s="2">
+        <v>6</v>
+      </c>
+      <c r="D447" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" t="s">
+        <v>13</v>
+      </c>
+      <c r="B448" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C448" s="2">
+        <v>7</v>
+      </c>
+      <c r="D448" s="3">
+        <v>7.7120822622107968E-2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B449" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C449" s="2">
+        <v>6</v>
+      </c>
+      <c r="D449" s="3">
+        <v>7.9710144927536225E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" t="s">
+        <v>13</v>
+      </c>
+      <c r="B450" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C450" s="2">
+        <v>8</v>
+      </c>
+      <c r="D450" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" t="s">
+        <v>13</v>
+      </c>
+      <c r="B451" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C451" s="2">
+        <v>6</v>
+      </c>
+      <c r="D451" s="3">
+        <v>8.0103359173126609E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" t="s">
+        <v>13</v>
+      </c>
+      <c r="B452" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C452" s="2">
+        <v>6</v>
+      </c>
+      <c r="D452" s="3">
+        <v>8.0200501253132828E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B453" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C453" s="2">
+        <v>10</v>
+      </c>
+      <c r="D453" s="3">
+        <v>8.0495356037151702E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C454" s="2">
+        <v>11</v>
+      </c>
+      <c r="D454" s="3">
+        <v>8.1081081081081086E-2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" t="s">
+        <v>13</v>
+      </c>
+      <c r="B455" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C455" s="2">
+        <v>1</v>
+      </c>
+      <c r="D455" s="3">
+        <v>8.1699346405228759E-2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" t="s">
+        <v>13</v>
+      </c>
+      <c r="B456" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C456" s="2">
+        <v>10</v>
+      </c>
+      <c r="D456" s="3">
+        <v>8.2386363636363633E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" t="s">
+        <v>13</v>
+      </c>
+      <c r="B457" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C457" s="2">
+        <v>12</v>
+      </c>
+      <c r="D457" s="3">
+        <v>8.3538083538083535E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B458" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C458" s="2">
+        <v>10</v>
+      </c>
+      <c r="D458" s="3">
+        <v>8.6642599277978335E-2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" t="s">
+        <v>13</v>
+      </c>
+      <c r="B459" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C459" s="2">
+        <v>5</v>
+      </c>
+      <c r="D459" s="3">
+        <v>8.9108910891089105E-2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" t="s">
+        <v>13</v>
+      </c>
+      <c r="B460" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C460" s="2">
+        <v>9</v>
+      </c>
+      <c r="D460" s="3">
+        <v>8.9743589743589744E-2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B461" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C461" s="2">
+        <v>5</v>
+      </c>
+      <c r="D461" s="3">
+        <v>9.1743119266055051E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B462" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C462" s="2">
+        <v>12</v>
+      </c>
+      <c r="D462" s="3">
+        <v>9.2741935483870969E-2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B463" s="2">
+        <v>2022</v>
+      </c>
+      <c r="C463" s="2">
+        <v>1</v>
+      </c>
+      <c r="D463" s="3">
+        <v>9.3596059113300489E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B464" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C464" s="2">
+        <v>11</v>
+      </c>
+      <c r="D464" s="3">
+        <v>9.3617021276595741E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B465" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C465" s="2">
+        <v>1</v>
+      </c>
+      <c r="D465" s="3">
+        <v>9.4339622641509441E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" t="s">
+        <v>13</v>
+      </c>
+      <c r="B466" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C466" s="2">
+        <v>9</v>
+      </c>
+      <c r="D466" s="3">
+        <v>9.4629156010230184E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B467" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C467" s="2">
+        <v>2</v>
+      </c>
+      <c r="D467" s="3">
+        <v>9.5744680851063829E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B468" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C468" s="2">
+        <v>5</v>
+      </c>
+      <c r="D468" s="3">
+        <v>9.6463022508038579E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B469" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C469" s="2">
+        <v>4</v>
+      </c>
+      <c r="D469" s="3">
+        <v>9.727626459143969E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" t="s">
+        <v>13</v>
+      </c>
+      <c r="B470" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C470" s="2">
+        <v>7</v>
+      </c>
+      <c r="D470" s="3">
+        <v>9.7560975609756101E-2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" t="s">
+        <v>13</v>
+      </c>
+      <c r="B471" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C471" s="2">
+        <v>11</v>
+      </c>
+      <c r="D471" s="3">
+        <v>9.9431818181818177E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B472" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C472" s="2">
+        <v>8</v>
+      </c>
+      <c r="D472" s="3">
+        <v>0.10153846153846154</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B473" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C473" s="2">
+        <v>12</v>
+      </c>
+      <c r="D473" s="3">
+        <v>0.10169491525423729</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B474" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C474" s="2">
+        <v>3</v>
+      </c>
+      <c r="D474" s="3">
+        <v>0.10248447204968944</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B475" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C475" s="2">
+        <v>2</v>
+      </c>
+      <c r="D475" s="3">
+        <v>0.10256410256410256</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B476" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C476" s="2">
+        <v>9</v>
+      </c>
+      <c r="D476" s="3">
+        <v>0.10452961672473868</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B477" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C477" s="2">
+        <v>8</v>
+      </c>
+      <c r="D477" s="3">
+        <v>0.10507246376811594</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B478" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C478" s="2">
+        <v>11</v>
+      </c>
+      <c r="D478" s="3">
+        <v>0.11585365853658537</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" t="s">
+        <v>13</v>
+      </c>
+      <c r="B479" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C479" s="2">
+        <v>10</v>
+      </c>
+      <c r="D479" s="3">
+        <v>0.1174934725848564</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B480" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C480" s="2">
+        <v>7</v>
+      </c>
+      <c r="D480" s="3">
+        <v>0.12413793103448276</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B481" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C481" s="2">
+        <v>4</v>
+      </c>
+      <c r="D481" s="3">
         <v>0.12538226299694188</v>
       </c>
     </row>
